--- a/Textbooks, projects/Applied Math/labs/lab_2/lab_2_example.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_2/lab_2_example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A9A350-1AA7-43EC-A135-5D654C883192}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823CAAC8-8EE4-41F1-BC02-1FB6A62FF3D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>x</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>f(c)</t>
+  </si>
+  <si>
+    <t>F(x)</t>
+  </si>
+  <si>
+    <t>F'(x)</t>
+  </si>
+  <si>
+    <t>погрешность</t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -1357,13 +1372,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1403,15 +1422,15 @@
         <v>0.5</v>
       </c>
       <c r="D2">
-        <f>(SIN((A2-8)^2))/3-(A2-2)/5</f>
+        <f t="shared" ref="D2:F3" si="0">(SIN((A2-8)^2))/3-(A2-2)/5</f>
         <v>0.7066753460655969</v>
       </c>
       <c r="E2">
-        <f>(SIN((B2-8)^2))/3-(B2-2)/5</f>
+        <f t="shared" si="0"/>
         <v>-0.11791755091982392</v>
       </c>
       <c r="F2">
-        <f>(SIN((C2-8)^2))/3-(C2-2)/5</f>
+        <f t="shared" si="0"/>
         <v>0.20191759609616483</v>
       </c>
       <c r="V2">
@@ -1436,584 +1455,921 @@
         <v>0.75</v>
       </c>
       <c r="D3">
-        <f>(SIN((A3-8)^2))/3-(A3-2)/5</f>
+        <f t="shared" si="0"/>
         <v>0.20191759609616483</v>
       </c>
       <c r="E3">
-        <f>(SIN((B3-8)^2))/3-(B3-2)/5</f>
+        <f t="shared" si="0"/>
         <v>-0.11791755091982392</v>
       </c>
       <c r="F3">
-        <f>(SIN((C3-8)^2))/3-(C3-2)/5</f>
+        <f t="shared" si="0"/>
         <v>0.49922967752144298</v>
       </c>
       <c r="V3">
         <v>-4.5</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W20" si="0">(SIN((V3-8)^2))/3-(V3-2)/5</f>
+        <f t="shared" ref="W3:W20" si="1">(SIN((V3-8)^2))/3-(V3-2)/5</f>
         <v>1.0541055247918414</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A20" si="1">IF(D3*F3&gt;0,C3,A3)</f>
+        <f t="shared" ref="A4:A20" si="2">IF(D3*F3&gt;0,C3,A3)</f>
         <v>0.75</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B20" si="2">IF(E3*F3&gt;0,C3,B3)</f>
+        <f t="shared" ref="B4:B20" si="3">IF(E3*F3&gt;0,C3,B3)</f>
         <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C20" si="3">(A4+B4)/2</f>
+        <f t="shared" ref="C4:C20" si="4">(A4+B4)/2</f>
         <v>0.875</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D20" si="4">(SIN((A4-8)^2))/3-(A4-2)/5</f>
+        <f t="shared" ref="D4:D20" si="5">(SIN((A4-8)^2))/3-(A4-2)/5</f>
         <v>0.49922967752144298</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E20" si="5">(SIN((B4-8)^2))/3-(B4-2)/5</f>
+        <f t="shared" ref="E4:E20" si="6">(SIN((B4-8)^2))/3-(B4-2)/5</f>
         <v>-0.11791755091982392</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F20" si="6">(SIN((C4-8)^2))/3-(C4-2)/5</f>
+        <f t="shared" ref="F4:F20" si="7">(SIN((C4-8)^2))/3-(C4-2)/5</f>
         <v>0.38485020886703003</v>
       </c>
       <c r="V4">
         <v>-4</v>
       </c>
       <c r="W4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0363261353671769</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
       <c r="B5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9375</v>
       </c>
       <c r="D5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38485020886703003</v>
       </c>
       <c r="E5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.11791755091982392</v>
       </c>
       <c r="F5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.6826834600188779E-2</v>
       </c>
       <c r="V5">
         <v>-3.5</v>
       </c>
       <c r="W5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1994961615228967</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
+        <f t="shared" si="2"/>
+        <v>0.9375</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="4"/>
+        <v>0.96875</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="5"/>
+        <v>8.6826834600188779E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="6"/>
+        <v>-0.11791755091982392</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="7"/>
+        <v>-3.9052472515785669E-2</v>
+      </c>
+      <c r="V6">
+        <v>-3</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="1"/>
+        <v>1.3329384082411933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="2"/>
         <v>0.9375</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B7">
         <f t="shared" si="3"/>
         <v>0.96875</v>
       </c>
-      <c r="D6">
+      <c r="C7">
         <f t="shared" si="4"/>
+        <v>0.953125</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
         <v>8.6826834600188779E-2</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="5"/>
-        <v>-0.11791755091982392</v>
-      </c>
-      <c r="F6">
+      <c r="E7">
         <f t="shared" si="6"/>
         <v>-3.9052472515785669E-2</v>
       </c>
-      <c r="V6">
-        <v>-3</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="0"/>
-        <v>1.3329384082411933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>0.9375</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="2"/>
-        <v>0.96875</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="3"/>
-        <v>0.953125</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="4"/>
-        <v>8.6826834600188779E-2</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="5"/>
-        <v>-3.9052472515785669E-2</v>
-      </c>
       <c r="F7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9230051089987016E-2</v>
       </c>
       <c r="V7">
         <v>-2.5</v>
       </c>
       <c r="W7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80332367168063734</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" si="2"/>
+        <v>0.953125</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="3"/>
+        <v>0.96875</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="4"/>
+        <v>0.9609375</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="5"/>
+        <v>1.9230051089987016E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="6"/>
+        <v>-3.9052472515785669E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="7"/>
+        <v>-1.1250093685642698E-2</v>
+      </c>
+      <c r="V8">
+        <v>-2</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="1"/>
+        <v>0.63121145296341374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="2"/>
         <v>0.953125</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="2"/>
-        <v>0.96875</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
         <f t="shared" si="3"/>
         <v>0.9609375</v>
       </c>
-      <c r="D8">
+      <c r="C9">
         <f t="shared" si="4"/>
+        <v>0.95703125</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="5"/>
         <v>1.9230051089987016E-2</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="5"/>
-        <v>-3.9052472515785669E-2</v>
-      </c>
-      <c r="F8">
+      <c r="E9">
         <f t="shared" si="6"/>
         <v>-1.1250093685642698E-2</v>
       </c>
-      <c r="V8">
-        <v>-2</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="0"/>
-        <v>0.63121145296341374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>0.953125</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="2"/>
-        <v>0.9609375</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="3"/>
-        <v>0.95703125</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="4"/>
-        <v>1.9230051089987016E-2</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="5"/>
-        <v>-1.1250093685642698E-2</v>
-      </c>
       <c r="F9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6758515939084579E-3</v>
       </c>
       <c r="V9">
         <v>-1.5</v>
       </c>
       <c r="W9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95178309522086835</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" si="2"/>
+        <v>0.95703125</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="3"/>
+        <v>0.9609375</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0.958984375</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="5"/>
+        <v>3.6758515939084579E-3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="6"/>
+        <v>-1.1250093685642698E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="7"/>
+        <v>-3.8683092985332679E-3</v>
+      </c>
+      <c r="V10">
+        <v>-1</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="1"/>
+        <v>0.39003733524184869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="2"/>
         <v>0.95703125</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="2"/>
-        <v>0.9609375</v>
-      </c>
-      <c r="C10">
+      <c r="B11">
         <f t="shared" si="3"/>
         <v>0.958984375</v>
       </c>
-      <c r="D10">
+      <c r="C11">
         <f t="shared" si="4"/>
+        <v>0.9580078125</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
         <v>3.6758515939084579E-3</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="5"/>
-        <v>-1.1250093685642698E-2</v>
-      </c>
-      <c r="F10">
+      <c r="E11">
         <f t="shared" si="6"/>
         <v>-3.8683092985332679E-3</v>
       </c>
-      <c r="V10">
-        <v>-1</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="0"/>
-        <v>0.39003733524184869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="F11">
+        <f t="shared" si="7"/>
+        <v>-1.1619884000152458E-4</v>
+      </c>
+      <c r="V11">
+        <v>-0.5</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="1"/>
+        <v>0.50221032799009302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="2"/>
         <v>0.95703125</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="2"/>
-        <v>0.958984375</v>
-      </c>
-      <c r="C11">
+      <c r="B12">
         <f t="shared" si="3"/>
         <v>0.9580078125</v>
       </c>
-      <c r="D11">
+      <c r="C12">
         <f t="shared" si="4"/>
+        <v>0.95751953125</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="5"/>
         <v>3.6758515939084579E-3</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="5"/>
-        <v>-3.8683092985332679E-3</v>
-      </c>
-      <c r="F11">
+      <c r="E12">
         <f t="shared" si="6"/>
         <v>-1.1619884000152458E-4</v>
       </c>
-      <c r="V11">
-        <v>-0.5</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="0"/>
-        <v>0.50221032799009302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>0.95703125</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="2"/>
-        <v>0.9580078125</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="3"/>
-        <v>0.95751953125</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="4"/>
-        <v>3.6758515939084579E-3</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="5"/>
-        <v>-1.1619884000152458E-4</v>
-      </c>
       <c r="F12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7748752063782847E-3</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7066753460655969</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95751953125</v>
       </c>
       <c r="B13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9580078125</v>
       </c>
       <c r="C13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.957763671875</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7748752063782847E-3</v>
       </c>
       <c r="E13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.1619884000152458E-4</v>
       </c>
       <c r="F13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.2809520520835123E-4</v>
       </c>
       <c r="V13">
         <v>0.5</v>
       </c>
       <c r="W13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20191759609616483</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.957763671875</v>
       </c>
       <c r="B14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9580078125</v>
       </c>
       <c r="C14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9578857421875</v>
       </c>
       <c r="D14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.2809520520835123E-4</v>
       </c>
       <c r="E14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.1619884000152458E-4</v>
       </c>
       <c r="F14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5563679164571371E-4</v>
       </c>
       <c r="V14">
         <v>1</v>
       </c>
       <c r="W14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.11791755091982392</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9578857421875</v>
       </c>
       <c r="B15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9580078125</v>
       </c>
       <c r="C15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95794677734375</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5563679164571371E-4</v>
       </c>
       <c r="E15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.1619884000152458E-4</v>
       </c>
       <c r="F15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1964104738165782E-4</v>
       </c>
       <c r="V15">
         <v>1.5</v>
       </c>
       <c r="W15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.22899568770423703</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95794677734375</v>
       </c>
       <c r="B16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9580078125</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.957977294921875</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1964104738165782E-4</v>
       </c>
       <c r="E16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.1619884000152458E-4</v>
       </c>
       <c r="F16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7016114990109354E-6</v>
       </c>
       <c r="V16">
         <v>2</v>
       </c>
       <c r="W16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.33059295114770526</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
+        <f t="shared" si="2"/>
+        <v>0.957977294921875</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>0.9580078125</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>0.9579925537109375</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>1.7016114990109354E-6</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>-1.1619884000152458E-4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="7"/>
+        <v>-5.725348855872836E-5</v>
+      </c>
+      <c r="V17">
+        <v>2.5</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="1"/>
+        <v>-0.40638456473452578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
         <v>0.957977294921875</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="2"/>
-        <v>0.9580078125</v>
-      </c>
-      <c r="C17">
+      <c r="B18">
         <f t="shared" si="3"/>
         <v>0.9579925537109375</v>
       </c>
-      <c r="D17">
+      <c r="C18">
         <f t="shared" si="4"/>
+        <v>0.95798492431640625</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
         <v>1.7016114990109354E-6</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="5"/>
-        <v>-1.1619884000152458E-4</v>
-      </c>
-      <c r="F17">
+      <c r="E18">
         <f t="shared" si="6"/>
         <v>-5.725348855872836E-5</v>
       </c>
-      <c r="V17">
-        <v>2.5</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="0"/>
-        <v>-0.40638456473452578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="F18">
+        <f t="shared" si="7"/>
+        <v>-2.7777156949293502E-5</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
         <f t="shared" si="1"/>
+        <v>-0.24411725003259102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
         <v>0.957977294921875</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="2"/>
-        <v>0.9579925537109375</v>
-      </c>
-      <c r="C18">
+      <c r="B19">
         <f t="shared" si="3"/>
         <v>0.95798492431640625</v>
       </c>
-      <c r="D18">
+      <c r="C19">
         <f t="shared" si="4"/>
+        <v>0.95798110961914063</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
         <v>1.7016114990109354E-6</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="5"/>
-        <v>-5.725348855872836E-5</v>
-      </c>
-      <c r="F18">
+      <c r="E19">
         <f t="shared" si="6"/>
         <v>-2.7777156949293502E-5</v>
       </c>
-      <c r="V18">
-        <v>3</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="0"/>
-        <v>-0.24411725003259102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="F19">
+        <f t="shared" si="7"/>
+        <v>-1.3038077310290053E-5</v>
+      </c>
+      <c r="V19">
+        <v>3.5</v>
+      </c>
+      <c r="W19">
         <f t="shared" si="1"/>
+        <v>2.8508370521706572E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
         <v>0.957977294921875</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="2"/>
-        <v>0.95798492431640625</v>
-      </c>
-      <c r="C19">
+      <c r="B20">
         <f t="shared" si="3"/>
         <v>0.95798110961914063</v>
       </c>
-      <c r="D19">
+      <c r="C20">
         <f t="shared" si="4"/>
+        <v>0.95797920227050781</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
         <v>1.7016114990109354E-6</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="5"/>
-        <v>-2.7777156949293502E-5</v>
-      </c>
-      <c r="F19">
+      <c r="E20">
         <f t="shared" si="6"/>
         <v>-1.3038077310290053E-5</v>
       </c>
-      <c r="V19">
-        <v>3.5</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="0"/>
-        <v>2.8508370521706572E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="1"/>
-        <v>0.957977294921875</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="2"/>
-        <v>0.95798110961914063</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="3"/>
-        <v>0.95797920227050781</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="4"/>
-        <v>1.7016114990109354E-6</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="5"/>
-        <v>-1.3038077310290053E-5</v>
-      </c>
       <c r="F20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5.6683090494669131E-6</v>
       </c>
       <c r="V20">
         <v>4</v>
       </c>
       <c r="W20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.49596777222168847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>A24-B25/C25</f>
+        <v>0.92642868049826554</v>
+      </c>
+      <c r="B25">
+        <f>(SIN((A24-8)^2))/3-(A24-2)/5</f>
+        <v>-0.11791755091982392</v>
+      </c>
+      <c r="C25">
+        <f>(2/3)*COS((A24-8)^2)*(A24-8)-1/5</f>
+        <v>-1.6027652041369729</v>
+      </c>
+      <c r="D25">
+        <f>ABS(A25-A24)</f>
+        <v>7.3571319501734456E-2</v>
+      </c>
+      <c r="G25">
+        <f>G24-H25/$I$24</f>
+        <v>1.0235835101839648</v>
+      </c>
+      <c r="H25">
+        <f>(SIN((G24-8)^2))/3-(G24-2)/5</f>
+        <v>-0.11791755091982392</v>
+      </c>
+      <c r="J25">
+        <f>ABS(G25-G24)</f>
+        <v>2.3583510183964762E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" ref="A26:A34" si="8">A25-B26/C26</f>
+        <v>0.95537575576487088</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:B34" si="9">(SIN((A25-8)^2))/3-(A25-2)/5</f>
+        <v>0.13869863317749132</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:C34" si="10">(2/3)*COS((A25-8)^2)*(A25-8)-1/5</f>
+        <v>-4.7914558517592472</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D34" si="11">ABS(A26-A25)</f>
+        <v>2.8947075266605338E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G34" si="12">G25-H26/$I$24</f>
+        <v>1.0511738366985011</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H34" si="13">(SIN((G25-8)^2))/3-(G25-2)/5</f>
+        <v>-0.137951632572681</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:J34" si="14">ABS(G26-G25)</f>
+        <v>2.7590326514536301E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="8"/>
+        <v>0.95794310813734285</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="9"/>
+        <v>1.0193604774775628E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="10"/>
+        <v>-3.9704735836322889</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="11"/>
+        <v>2.5673523724719649E-3</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="12"/>
+        <v>1.0744019418114945</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="13"/>
+        <v>-0.11614052556496693</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="14"/>
+        <v>2.3228105112993447E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="8"/>
+        <v>0.95797772880870291</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="9"/>
+        <v>1.3382383157153899E-4</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="10"/>
+        <v>-3.8654314406437069</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="11"/>
+        <v>3.4620671360063859E-5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="12"/>
+        <v>1.0870217244521103</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="13"/>
+        <v>-6.3098913203079199E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="14"/>
+        <v>1.2619782640615806E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="8"/>
+        <v>0.95797773529847785</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="9"/>
+        <v>2.5076377946353645E-8</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="10"/>
+        <v>-3.8639826627596037</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="11"/>
+        <v>6.489774939666404E-9</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="12"/>
+        <v>1.0916597400669366</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="13"/>
+        <v>-2.3190078074131065E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="14"/>
+        <v>4.6380156148262408E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="8"/>
+        <v>0.95797773529847818</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="9"/>
+        <v>1.3877787807814457E-15</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="10"/>
+        <v>-3.8639823911010542</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="11"/>
+        <v>3.3306690738754696E-16</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="12"/>
+        <v>1.0930391030062558</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="13"/>
+        <v>-6.896814696596365E-3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="14"/>
+        <v>1.3793629393192841E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="8"/>
+        <v>0.95797773529847852</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="9"/>
+        <v>1.27675647831893E-15</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="10"/>
+        <v>-3.8639823911010542</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="11"/>
+        <v>3.3306690738754696E-16</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="12"/>
+        <v>1.0934192485052729</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="13"/>
+        <v>-1.9007274950849917E-3</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="14"/>
+        <v>3.8014549901710382E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="8"/>
+        <v>0.95797773529847785</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="9"/>
+        <v>-2.4980018054066022E-15</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="10"/>
+        <v>-3.8639823911010116</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="11"/>
+        <v>6.6613381477509392E-16</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="12"/>
+        <v>1.0935216958151055</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="13"/>
+        <v>-5.1223654916313088E-4</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="14"/>
+        <v>1.0244730983255401E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="8"/>
+        <v>0.95797773529847818</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="9"/>
+        <v>1.3877787807814457E-15</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="10"/>
+        <v>-3.8639823911010542</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="11"/>
+        <v>3.3306690738754696E-16</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="12"/>
+        <v>1.0935491357456359</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="13"/>
+        <v>-1.3719965265199252E-4</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="14"/>
+        <v>2.7439930530448464E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="8"/>
+        <v>0.95797773529847852</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="9"/>
+        <v>1.27675647831893E-15</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="10"/>
+        <v>-3.8639823911010542</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="11"/>
+        <v>3.3306690738754696E-16</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="12"/>
+        <v>1.0935564732300991</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="13"/>
+        <v>-3.6687422315856422E-5</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="14"/>
+        <v>7.3374844631324265E-6</v>
       </c>
     </row>
   </sheetData>
